--- a/Training/NonVirtualizedTests/Data/modular_testdata.xlsx
+++ b/Training/NonVirtualizedTests/Data/modular_testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rnuesse\Compuware\Workbench\workspace_main\LBP_Training\NonVirtualizedTests\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rnuesse\git\Training\Training\NonVirtualizedTests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEED1F4-5167-4AF0-9A1B-1F0FA86675C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB98032E-79CB-4D20-9C99-B005041D7B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4008" yWindow="-17388" windowWidth="30936" windowHeight="16896" xr2:uid="{31D39708-8A0B-498B-B77D-7F5B4F44EDCE}"/>
+    <workbookView xWindow="-33795" yWindow="-21600" windowWidth="29040" windowHeight="15840" xr2:uid="{31D39708-8A0B-498B-B77D-7F5B4F44EDCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
